--- a/input/dsl.3/data.input.xlsx
+++ b/input/dsl.3/data.input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03EB14C-53FF-4956-BCC6-54B377CBC6F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC1394-24C2-455F-A6C8-6CB831699134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="k_constants_log10" sheetId="3" r:id="rId3"/>
     <sheet name="absorbance" sheetId="4" r:id="rId4"/>
     <sheet name="mol_ext_coefficients" sheetId="5" r:id="rId5"/>
+    <sheet name="constant_names" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>H</t>
   </si>
@@ -1330,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF57C8-A1DB-4B5D-9903-403F1593211A}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1348,4 +1349,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D11D97-DC3D-468C-BFC1-901C7148BABC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/dsl.3/data.input.xlsx
+++ b/input/dsl.3/data.input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC1394-24C2-455F-A6C8-6CB831699134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D439A98-687B-4040-AF2E-F0755F32A8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF57C8-A1DB-4B5D-9903-403F1593211A}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D11D97-DC3D-468C-BFC1-901C7148BABC}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/input/dsl.3/data.input.xlsx
+++ b/input/dsl.3/data.input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D439A98-687B-4040-AF2E-F0755F32A8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C2346-66A4-48AC-BF4C-8439C86FF9C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>H</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>1.989</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>wave.length</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>deviaton</t>
   </si>
 </sst>
 </file>
@@ -1204,121 +1216,171 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E067D6-BBF5-48DE-A3CF-EB106580364D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1329,20 +1391,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF57C8-A1DB-4B5D-9903-403F1593211A}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/input/dsl.3/data.input.xlsx
+++ b/input/dsl.3/data.input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C2346-66A4-48AC-BF4C-8439C86FF9C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF58034-0961-4B08-B218-60B3CAB6858D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -165,13 +165,13 @@
     <t>data</t>
   </si>
   <si>
-    <t>wave.length</t>
-  </si>
-  <si>
     <t>observation</t>
   </si>
   <si>
     <t>deviaton</t>
+  </si>
+  <si>
+    <t>wavelength</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E067D6-BBF5-48DE-A3CF-EB106580364D}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -1393,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EF57C8-A1DB-4B5D-9903-403F1593211A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
